--- a/saponazure_cmpts_ha_az_quickref_v1.xlsx
+++ b/saponazure_cmpts_ha_az_quickref_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pankaj\GitRepo\sap-on-azure-az-support-matrix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pankaj\GitRepo\saponazure-components-ha-az-quick-reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0674F878-1B3B-4376-B5FD-064CF38E34C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574CCFB0-88F0-4E24-BF96-DD3A29B5E940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7433491F-3EF0-46E0-AD70-7DCE37505436}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="402">
   <si>
     <r>
       <rPr>
@@ -1502,12 +1502,6 @@
     <t>DR Replication Option</t>
   </si>
   <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>Change History</t>
-  </si>
-  <si>
     <t>VMs marked in yellow below are previous generations of virtual machine sizes. For a better performance and support, the newer generations VMs are recommended(highlighted in blue). Please refer:
 https://launchpad.support.sap.com/#/notes/1928533
 https://docs.microsoft.com/azure/virtual-machines/sizes-previous-gen
@@ -1515,9 +1509,6 @@
   </si>
   <si>
     <t>Remarks</t>
-  </si>
-  <si>
-    <t>DD/MM/YY</t>
   </si>
   <si>
     <t>Refer the table below</t>
@@ -1558,7 +1549,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1619,13 +1610,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1857,7 +1841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1945,6 +1929,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1960,56 +1961,66 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2028,6 +2039,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2037,59 +2051,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2405,7 +2383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323E590D-011B-41C9-9266-FB1F860D6A7B}">
-  <dimension ref="A2:AB37"/>
+  <dimension ref="A2:AB33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2418,872 +2396,856 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="I2" s="39" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="I2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="S2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
     </row>
     <row r="6" spans="1:28" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="I15" s="35" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="I15" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="S15" s="37" t="s">
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="S15" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="43"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="43"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="43"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="43"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="77" t="s">
-        <v>398</v>
-      </c>
-      <c r="B36" s="77" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="77" t="s">
-        <v>397</v>
-      </c>
-      <c r="B37" s="85">
-        <v>44089</v>
-      </c>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3317,7 +3279,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>395</v>
@@ -3345,7 +3307,7 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="35" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3362,7 +3324,7 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="35" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3379,7 +3341,7 @@
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="35" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3396,7 +3358,7 @@
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="35" t="s">
         <v>380</v>
       </c>
     </row>
@@ -3413,28 +3375,28 @@
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="72" t="s">
-        <v>402</v>
+      <c r="E6" s="35" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="50" t="s">
         <v>381</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="43" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="50" t="s">
         <v>382</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="74" t="s">
+      <c r="E9" s="51"/>
+      <c r="F9" s="52" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="11" t="s">
         <v>326</v>
       </c>
@@ -3447,7 +3409,7 @@
       <c r="E10" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="F10" s="75"/>
+      <c r="F10" s="53"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -3465,7 +3427,7 @@
       <c r="E11" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="37" t="s">
         <v>385</v>
       </c>
     </row>
@@ -3473,13 +3435,13 @@
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="36" t="s">
         <v>383</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="36" t="s">
         <v>383</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -3505,7 +3467,7 @@
       <c r="E13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="35" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3525,7 +3487,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="37" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3545,7 +3507,7 @@
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="37" t="s">
         <v>387</v>
       </c>
     </row>
@@ -3565,7 +3527,7 @@
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="35" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3590,10 +3552,10 @@
       <c r="A20" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="38" t="s">
         <v>334</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -3607,10 +3569,10 @@
       <c r="A21" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="38" t="s">
         <v>334</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -3624,10 +3586,10 @@
       <c r="A22" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="38" t="s">
         <v>334</v>
       </c>
       <c r="D22" s="17" t="s">
@@ -3641,10 +3603,10 @@
       <c r="A23" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="38" t="s">
         <v>334</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -3658,10 +3620,10 @@
       <c r="A24" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="38" t="s">
         <v>334</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -3675,10 +3637,10 @@
       <c r="A25" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="38" t="s">
         <v>334</v>
       </c>
       <c r="D25" s="9" t="s">
@@ -3692,10 +3654,10 @@
       <c r="A26" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="C26" s="79" t="s">
+      <c r="C26" s="39" t="s">
         <v>392</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -3706,36 +3668,36 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="86" t="s">
-        <v>404</v>
-      </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
+      <c r="A28" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
     </row>
     <row r="32" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3774,36 +3736,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="82" t="s">
-        <v>399</v>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="54" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="82"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="82"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="82"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
@@ -3819,7 +3781,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3835,7 +3797,7 @@
       <c r="D6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="57" t="s">
         <v>355</v>
       </c>
     </row>
@@ -3850,7 +3812,7 @@
       <c r="D7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="68"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
@@ -3863,7 +3825,7 @@
       <c r="D8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="68"/>
+      <c r="E8" s="58"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
@@ -3876,7 +3838,7 @@
       <c r="D9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="68"/>
+      <c r="E9" s="58"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
@@ -3889,7 +3851,7 @@
       <c r="D10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="68"/>
+      <c r="E10" s="58"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -3904,7 +3866,7 @@
       <c r="D11" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="59" t="s">
         <v>356</v>
       </c>
     </row>
@@ -3919,7 +3881,7 @@
       <c r="D12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="70"/>
+      <c r="E12" s="60"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
@@ -3932,7 +3894,7 @@
       <c r="D13" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="70"/>
+      <c r="E13" s="60"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
@@ -3945,7 +3907,7 @@
       <c r="D14" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="70"/>
+      <c r="E14" s="60"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
@@ -3960,7 +3922,7 @@
       <c r="D15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="59" t="s">
         <v>357</v>
       </c>
     </row>
@@ -3975,7 +3937,7 @@
       <c r="D16" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="71"/>
+      <c r="E16" s="61"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22"/>
@@ -3988,7 +3950,7 @@
       <c r="D17" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="71"/>
+      <c r="E17" s="61"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
@@ -4001,7 +3963,7 @@
       <c r="D18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="71"/>
+      <c r="E18" s="61"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
@@ -4023,7 +3985,7 @@
       <c r="D20" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="67" t="s">
         <v>360</v>
       </c>
     </row>
@@ -4038,7 +4000,7 @@
       <c r="D21" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="57"/>
+      <c r="E21" s="68"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
@@ -4051,7 +4013,7 @@
       <c r="D22" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="57"/>
+      <c r="E22" s="68"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
@@ -4064,7 +4026,7 @@
       <c r="D23" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="57"/>
+      <c r="E23" s="68"/>
     </row>
     <row r="24" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25"/>
@@ -4077,7 +4039,7 @@
       <c r="D24" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="58"/>
+      <c r="E24" s="69"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
@@ -4099,7 +4061,7 @@
       <c r="D26" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="70" t="s">
         <v>361</v>
       </c>
     </row>
@@ -4114,7 +4076,7 @@
       <c r="D27" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="60"/>
+      <c r="E27" s="71"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
@@ -4127,7 +4089,7 @@
       <c r="D28" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="60"/>
+      <c r="E28" s="71"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
@@ -4140,7 +4102,7 @@
       <c r="D29" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="60"/>
+      <c r="E29" s="71"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25"/>
@@ -4153,7 +4115,7 @@
       <c r="D30" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="60"/>
+      <c r="E30" s="71"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
@@ -4166,7 +4128,7 @@
       <c r="D31" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="60"/>
+      <c r="E31" s="71"/>
     </row>
     <row r="32" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
@@ -4179,7 +4141,7 @@
       <c r="D32" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="61"/>
+      <c r="E32" s="72"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29"/>
@@ -4201,7 +4163,7 @@
       <c r="D34" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="67" t="s">
         <v>362</v>
       </c>
     </row>
@@ -4216,7 +4178,7 @@
       <c r="D35" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="62"/>
+      <c r="E35" s="73"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
@@ -4229,7 +4191,7 @@
       <c r="D36" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="62"/>
+      <c r="E36" s="73"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
@@ -4242,7 +4204,7 @@
       <c r="D37" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="62"/>
+      <c r="E37" s="73"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="25"/>
@@ -4255,7 +4217,7 @@
       <c r="D38" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="62"/>
+      <c r="E38" s="73"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25"/>
@@ -4268,7 +4230,7 @@
       <c r="D39" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="62"/>
+      <c r="E39" s="73"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="25"/>
@@ -4281,7 +4243,7 @@
       <c r="D40" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="62"/>
+      <c r="E40" s="73"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
@@ -4294,7 +4256,7 @@
       <c r="D41" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E41" s="62"/>
+      <c r="E41" s="73"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
@@ -4307,7 +4269,7 @@
       <c r="D42" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="63"/>
+      <c r="E42" s="74"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
@@ -4329,7 +4291,7 @@
       <c r="D44" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="62" t="s">
         <v>364</v>
       </c>
     </row>
@@ -4344,7 +4306,7 @@
       <c r="D45" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="54"/>
+      <c r="E45" s="75"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
@@ -4357,7 +4319,7 @@
       <c r="D46" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="54"/>
+      <c r="E46" s="75"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
@@ -4370,7 +4332,7 @@
       <c r="D47" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="54"/>
+      <c r="E47" s="75"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
@@ -4383,7 +4345,7 @@
       <c r="D48" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="54"/>
+      <c r="E48" s="75"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
@@ -4396,7 +4358,7 @@
       <c r="D49" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="54"/>
+      <c r="E49" s="75"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25"/>
@@ -4409,7 +4371,7 @@
       <c r="D50" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E50" s="54"/>
+      <c r="E50" s="75"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
@@ -4422,7 +4384,7 @@
       <c r="D51" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="E51" s="54"/>
+      <c r="E51" s="75"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="32"/>
@@ -4444,7 +4406,7 @@
       <c r="D53" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="67" t="s">
         <v>363</v>
       </c>
     </row>
@@ -4459,7 +4421,7 @@
       <c r="D54" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="57"/>
+      <c r="E54" s="68"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
@@ -4472,7 +4434,7 @@
       <c r="D55" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="57"/>
+      <c r="E55" s="68"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
@@ -4485,7 +4447,7 @@
       <c r="D56" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E56" s="57"/>
+      <c r="E56" s="68"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
@@ -4498,7 +4460,7 @@
       <c r="D57" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E57" s="57"/>
+      <c r="E57" s="68"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
@@ -4511,7 +4473,7 @@
       <c r="D58" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="E58" s="57"/>
+      <c r="E58" s="68"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="25"/>
@@ -4524,7 +4486,7 @@
       <c r="D59" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="57"/>
+      <c r="E59" s="68"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="25"/>
@@ -4537,7 +4499,7 @@
       <c r="D60" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="E60" s="57"/>
+      <c r="E60" s="68"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25"/>
@@ -4550,7 +4512,7 @@
       <c r="D61" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="E61" s="57"/>
+      <c r="E61" s="68"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
@@ -4563,7 +4525,7 @@
       <c r="D62" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="E62" s="58"/>
+      <c r="E62" s="69"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="28"/>
@@ -4585,7 +4547,7 @@
       <c r="D64" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="E64" s="53" t="s">
+      <c r="E64" s="62" t="s">
         <v>365</v>
       </c>
     </row>
@@ -4600,7 +4562,7 @@
       <c r="D65" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="E65" s="54"/>
+      <c r="E65" s="75"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="25"/>
@@ -4613,7 +4575,7 @@
       <c r="D66" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="E66" s="54"/>
+      <c r="E66" s="75"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="25"/>
@@ -4626,7 +4588,7 @@
       <c r="D67" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="E67" s="54"/>
+      <c r="E67" s="75"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="25"/>
@@ -4639,7 +4601,7 @@
       <c r="D68" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="E68" s="54"/>
+      <c r="E68" s="75"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="25"/>
@@ -4652,7 +4614,7 @@
       <c r="D69" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="E69" s="54"/>
+      <c r="E69" s="75"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="25"/>
@@ -4665,7 +4627,7 @@
       <c r="D70" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E70" s="54"/>
+      <c r="E70" s="75"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
@@ -4687,7 +4649,7 @@
       <c r="D72" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E72" s="53" t="s">
+      <c r="E72" s="62" t="s">
         <v>366</v>
       </c>
     </row>
@@ -4702,7 +4664,7 @@
       <c r="D73" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="E73" s="64"/>
+      <c r="E73" s="76"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="25"/>
@@ -4715,7 +4677,7 @@
       <c r="D74" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="E74" s="64"/>
+      <c r="E74" s="76"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="25"/>
@@ -4728,7 +4690,7 @@
       <c r="D75" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="E75" s="64"/>
+      <c r="E75" s="76"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="25"/>
@@ -4741,7 +4703,7 @@
       <c r="D76" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="E76" s="64"/>
+      <c r="E76" s="76"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="25"/>
@@ -4754,7 +4716,7 @@
       <c r="D77" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="E77" s="64"/>
+      <c r="E77" s="76"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="25"/>
@@ -4767,7 +4729,7 @@
       <c r="D78" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="E78" s="64"/>
+      <c r="E78" s="76"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="25"/>
@@ -4780,7 +4742,7 @@
       <c r="D79" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E79" s="64"/>
+      <c r="E79" s="76"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
@@ -4802,7 +4764,7 @@
       <c r="D81" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="E81" s="65" t="s">
+      <c r="E81" s="77" t="s">
         <v>358</v>
       </c>
     </row>
@@ -4817,7 +4779,7 @@
       <c r="D82" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E82" s="66"/>
+      <c r="E82" s="78"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="22"/>
@@ -4830,7 +4792,7 @@
       <c r="D83" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="E83" s="66"/>
+      <c r="E83" s="78"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="22"/>
@@ -4843,7 +4805,7 @@
       <c r="D84" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="E84" s="66"/>
+      <c r="E84" s="78"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="22"/>
@@ -4856,7 +4818,7 @@
       <c r="D85" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="E85" s="66"/>
+      <c r="E85" s="78"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
@@ -4878,7 +4840,7 @@
       <c r="D87" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="E87" s="49" t="s">
+      <c r="E87" s="67" t="s">
         <v>368</v>
       </c>
     </row>
@@ -4893,7 +4855,7 @@
       <c r="D88" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="E88" s="50"/>
+      <c r="E88" s="82"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="25"/>
@@ -4906,7 +4868,7 @@
       <c r="D89" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E89" s="50"/>
+      <c r="E89" s="82"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="25"/>
@@ -4919,7 +4881,7 @@
       <c r="D90" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="E90" s="50"/>
+      <c r="E90" s="82"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="25"/>
@@ -4932,7 +4894,7 @@
       <c r="D91" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="E91" s="50"/>
+      <c r="E91" s="82"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="25"/>
@@ -4945,7 +4907,7 @@
       <c r="D92" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="E92" s="50"/>
+      <c r="E92" s="82"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="25"/>
@@ -4958,7 +4920,7 @@
       <c r="D93" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="E93" s="50"/>
+      <c r="E93" s="82"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="25"/>
@@ -4971,7 +4933,7 @@
       <c r="D94" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="E94" s="50"/>
+      <c r="E94" s="82"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="25"/>
@@ -4984,7 +4946,7 @@
       <c r="D95" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="E95" s="50"/>
+      <c r="E95" s="82"/>
     </row>
     <row r="96" spans="1:5" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="25"/>
@@ -4997,7 +4959,7 @@
       <c r="D96" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="E96" s="51"/>
+      <c r="E96" s="83"/>
     </row>
     <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
@@ -5019,7 +4981,7 @@
       <c r="D98" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="E98" s="45" t="s">
+      <c r="E98" s="79" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5034,7 +4996,7 @@
       <c r="D99" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="E99" s="46"/>
+      <c r="E99" s="80"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="25"/>
@@ -5047,7 +5009,7 @@
       <c r="D100" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="E100" s="46"/>
+      <c r="E100" s="80"/>
     </row>
     <row r="101" spans="1:5" ht="142.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="25"/>
@@ -5060,30 +5022,30 @@
       <c r="D101" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="E101" s="47"/>
+      <c r="E101" s="81"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="48" t="s">
+      <c r="A104" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="B104" s="40"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="56"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="66"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
-      <c r="B105" s="40"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="40"/>
-      <c r="E105" s="56"/>
+      <c r="A105" s="65"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="66"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="40"/>
-      <c r="E106" s="56"/>
+      <c r="A106" s="65"/>
+      <c r="B106" s="65"/>
+      <c r="C106" s="65"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="66"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5116,7 +5078,7 @@
       <c r="D109" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="E109" s="52" t="s">
+      <c r="E109" s="84" t="s">
         <v>359</v>
       </c>
     </row>
@@ -5131,7 +5093,7 @@
       <c r="D110" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="E110" s="52"/>
+      <c r="E110" s="84"/>
     </row>
     <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="22"/>
@@ -5144,7 +5106,7 @@
       <c r="D111" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E111" s="52"/>
+      <c r="E111" s="84"/>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="22"/>
@@ -5157,7 +5119,7 @@
       <c r="D112" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="E112" s="52"/>
+      <c r="E112" s="84"/>
     </row>
     <row r="113" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="22"/>
@@ -5170,7 +5132,7 @@
       <c r="D113" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="E113" s="52"/>
+      <c r="E113" s="84"/>
     </row>
     <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
@@ -5191,7 +5153,7 @@
       <c r="D115" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="E115" s="53" t="s">
+      <c r="E115" s="62" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5206,7 +5168,7 @@
       <c r="D116" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="E116" s="53"/>
+      <c r="E116" s="62"/>
     </row>
     <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="25"/>
@@ -5219,7 +5181,7 @@
       <c r="D117" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="E117" s="53"/>
+      <c r="E117" s="62"/>
     </row>
     <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="25"/>
@@ -5232,7 +5194,7 @@
       <c r="D118" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="E118" s="53"/>
+      <c r="E118" s="62"/>
     </row>
     <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="25"/>
@@ -5245,7 +5207,7 @@
       <c r="D119" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E119" s="53"/>
+      <c r="E119" s="62"/>
     </row>
     <row r="120" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="25"/>
@@ -5258,7 +5220,7 @@
       <c r="D120" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="E120" s="53"/>
+      <c r="E120" s="62"/>
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6"/>
@@ -5279,7 +5241,7 @@
       <c r="D122" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="E122" s="53" t="s">
+      <c r="E122" s="62" t="s">
         <v>370</v>
       </c>
     </row>
@@ -5294,7 +5256,7 @@
       <c r="D123" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="E123" s="53"/>
+      <c r="E123" s="62"/>
     </row>
     <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="26"/>
@@ -5307,7 +5269,7 @@
       <c r="D124" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="E124" s="53"/>
+      <c r="E124" s="62"/>
     </row>
     <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="26"/>
@@ -5320,7 +5282,7 @@
       <c r="D125" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="E125" s="53"/>
+      <c r="E125" s="62"/>
     </row>
     <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="26"/>
@@ -5333,7 +5295,7 @@
       <c r="D126" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="E126" s="53"/>
+      <c r="E126" s="62"/>
     </row>
     <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="26"/>
@@ -5346,7 +5308,7 @@
       <c r="D127" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="E127" s="53"/>
+      <c r="E127" s="62"/>
     </row>
     <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
@@ -5367,7 +5329,7 @@
       <c r="D129" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="E129" s="55" t="s">
+      <c r="E129" s="63" t="s">
         <v>371</v>
       </c>
     </row>
@@ -5382,7 +5344,7 @@
       <c r="D130" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="E130" s="55"/>
+      <c r="E130" s="63"/>
     </row>
     <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
@@ -5395,7 +5357,7 @@
       <c r="D131" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="E131" s="55"/>
+      <c r="E131" s="63"/>
     </row>
     <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
@@ -5408,7 +5370,7 @@
       <c r="D132" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="E132" s="55"/>
+      <c r="E132" s="63"/>
     </row>
     <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="23"/>
@@ -5421,37 +5383,37 @@
       <c r="D133" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="E133" s="55"/>
+      <c r="E133" s="63"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="48" t="s">
+      <c r="A135" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B135" s="40"/>
-      <c r="C135" s="40"/>
-      <c r="D135" s="40"/>
-      <c r="E135" s="56"/>
+      <c r="B135" s="65"/>
+      <c r="C135" s="65"/>
+      <c r="D135" s="65"/>
+      <c r="E135" s="66"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
-      <c r="B136" s="40"/>
-      <c r="C136" s="40"/>
-      <c r="D136" s="40"/>
-      <c r="E136" s="56"/>
+      <c r="A136" s="65"/>
+      <c r="B136" s="65"/>
+      <c r="C136" s="65"/>
+      <c r="D136" s="65"/>
+      <c r="E136" s="66"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
-      <c r="B137" s="40"/>
-      <c r="C137" s="40"/>
-      <c r="D137" s="40"/>
-      <c r="E137" s="56"/>
+      <c r="A137" s="65"/>
+      <c r="B137" s="65"/>
+      <c r="C137" s="65"/>
+      <c r="D137" s="65"/>
+      <c r="E137" s="66"/>
     </row>
     <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="40"/>
-      <c r="B138" s="40"/>
-      <c r="C138" s="40"/>
-      <c r="D138" s="40"/>
-      <c r="E138" s="56"/>
+      <c r="A138" s="65"/>
+      <c r="B138" s="65"/>
+      <c r="C138" s="65"/>
+      <c r="D138" s="65"/>
+      <c r="E138" s="66"/>
     </row>
     <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
@@ -5480,7 +5442,7 @@
       <c r="C140" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D140" s="81">
+      <c r="D140" s="41">
         <v>160480</v>
       </c>
       <c r="E140" s="5" t="s">
@@ -5495,7 +5457,7 @@
       <c r="C141" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D141" s="81">
+      <c r="D141" s="41">
         <v>224330</v>
       </c>
       <c r="E141" s="5" t="s">
@@ -5510,7 +5472,7 @@
       <c r="C142" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D142" s="81">
+      <c r="D142" s="41">
         <v>270575</v>
       </c>
       <c r="E142" s="5" t="s">
@@ -5525,7 +5487,7 @@
       <c r="C143" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D143" s="81">
+      <c r="D143" s="41">
         <v>363410</v>
       </c>
       <c r="E143" s="5" t="s">
@@ -5540,7 +5502,7 @@
       <c r="C144" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D144" s="81">
+      <c r="D144" s="41">
         <v>502660</v>
       </c>
       <c r="E144" s="5" t="s">
@@ -5555,7 +5517,7 @@
       <c r="C145" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D145" s="81">
+      <c r="D145" s="41">
         <v>87680</v>
       </c>
       <c r="E145" s="5" t="s">
@@ -5570,7 +5532,7 @@
       <c r="C146" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D146" s="81">
+      <c r="D146" s="41">
         <v>619560</v>
       </c>
       <c r="E146" s="5" t="s">
@@ -5585,7 +5547,7 @@
       <c r="C147" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D147" s="81">
+      <c r="D147" s="41">
         <v>877050</v>
       </c>
       <c r="E147" s="5" t="s">
@@ -5600,7 +5562,7 @@
       <c r="C148" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D148" s="81">
+      <c r="D148" s="41">
         <v>112</v>
       </c>
       <c r="E148" s="5" t="s">
@@ -5615,7 +5577,7 @@
       <c r="C149" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D149" s="81">
+      <c r="D149" s="41">
         <v>717710</v>
       </c>
       <c r="E149" s="5" t="s">
@@ -5624,11 +5586,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E15:E18"/>
     <mergeCell ref="E122:E127"/>
     <mergeCell ref="E129:E133"/>
     <mergeCell ref="A135:E138"/>
@@ -5645,6 +5602,11 @@
     <mergeCell ref="E87:E96"/>
     <mergeCell ref="E109:E113"/>
     <mergeCell ref="E115:E120"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E15:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5652,6 +5614,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010007CC4F365F7E2F4B8AA49D9D49B33605" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a7e5d1ebdee06f6f413492d625b67cf2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="53c34977-5f94-46d1-a544-a404ce812810" xmlns:ns3="b372b615-473b-421c-aa2b-b11f8355cd14" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b7d56e07239a473e19179a78a9df4b54" ns2:_="" ns3:_="">
     <xsd:import namespace="53c34977-5f94-46d1-a544-a404ce812810"/>
@@ -5868,15 +5839,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5886,6 +5848,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D586DD0F-3923-45DE-A477-9FB9DA48CBEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BD297C8-1514-4DD4-86C0-60554B44EF68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5904,14 +5874,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D586DD0F-3923-45DE-A477-9FB9DA48CBEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EF76EE0-8D54-46CA-8328-AC9B97088F05}">
   <ds:schemaRefs>

--- a/saponazure_cmpts_ha_az_quickref_v1.xlsx
+++ b/saponazure_cmpts_ha_az_quickref_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pankaj\GitRepo\saponazure-components-ha-az-quick-reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574CCFB0-88F0-4E24-BF96-DD3A29B5E940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB170B34-4890-447F-AF4C-37D34BF2BF8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7433491F-3EF0-46E0-AD70-7DCE37505436}"/>
   </bookViews>
@@ -1218,13 +1218,6 @@
     <t>Storage Type</t>
   </si>
   <si>
-    <t xml:space="preserve">SQL Server Clustering using Windows Scale-out File Server
-SQL Server Log Shipping
-Database Mirroring
-SQL Server Always On
-</t>
-  </si>
-  <si>
     <t>Windows version on SQL Server</t>
   </si>
   <si>
@@ -1246,10 +1239,6 @@
     <t>Third Party</t>
   </si>
   <si>
-    <t>Linux Pacemaker
-Windows Cluster Server</t>
-  </si>
-  <si>
     <t>SUSE, RedHat, Windows Server</t>
   </si>
   <si>
@@ -1272,9 +1261,6 @@
   </si>
   <si>
     <t>Microsoft Windows 2016</t>
-  </si>
-  <si>
-    <t>standard SAP MaxDB backup/restore tools</t>
   </si>
   <si>
     <t>High Availability</t>
@@ -1445,16 +1431,6 @@
     <t>Native Database Replication</t>
   </si>
   <si>
-    <t xml:space="preserve">Regional Deployment ( Azure Availability Sets )
-</t>
-  </si>
-  <si>
-    <t>Zonal Deployement ( Azure Availability Zone )</t>
-  </si>
-  <si>
-    <t>Private Preview</t>
-  </si>
-  <si>
     <t>Future roadmap</t>
   </si>
   <si>
@@ -1468,26 +1444,12 @@
   </si>
   <si>
     <t>Manual</t>
-  </si>
-  <si>
-    <t>Automated Backup for SQL Server
-Azure Backup for SQL Server VMs
-Third Party</t>
-  </si>
-  <si>
-    <t>SAP BR*Tools for Oracle
-Oracle Recovery Manager (RMAN)
-Third Party</t>
   </si>
   <si>
     <t>• HANA backup through Azure Backup Services
 • HANA backup to the file system in an Azure Linux Virtual Machine
 • HANA backup based on storage snapshots using the Azure storage blob snapshot feature manually or Azure Backup service
 •Third Party</t>
-  </si>
-  <si>
-    <t>Azure Managed Disks
-Azure NetApp Files</t>
   </si>
   <si>
     <t>DB Native</t>
@@ -1543,6 +1505,44 @@
 • https://docs.microsoft.com/en-us/azure/virtual-machines/workloads/sap/planning-guide-storage#storage-recommendations-for-sap-storage-scenarios
 • https://launchpad.support.sap.com/#/notes/1928533</t>
     </r>
+  </si>
+  <si>
+    <t>Public Preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regional Deployment (Availability Sets)
+</t>
+  </si>
+  <si>
+    <t>Zonal Deployment (Availability Zone)</t>
+  </si>
+  <si>
+    <t>•Automated Backup for SQL Server
+•Azure Backup for SQL Server VMs
+•Third Party</t>
+  </si>
+  <si>
+    <t>•SAP BR*Tools for Oracle
+•Oracle Recovery Manager (RMAN)
+•Third Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•SQL Server Clustering using Windows •Scale-out File Server
+•SQL Server Log Shipping
+•Database Mirroring
+•SQL Server Always On
+</t>
+  </si>
+  <si>
+    <t>•Linux Pacemaker
+•Windows Cluster Server</t>
+  </si>
+  <si>
+    <t>•Azure Managed Disks
+•Azure NetApp Files</t>
+  </si>
+  <si>
+    <t>Standard SAP MaxDB backup/restore tools</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1616,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1655,18 +1655,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1817,31 +1811,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1872,12 +1846,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1930,9 +1898,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1975,34 +1940,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2068,6 +2005,46 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2396,856 +2373,856 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="I2" s="46" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="I2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="S2" s="42" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="S2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
     </row>
     <row r="6" spans="1:28" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="I15" s="42" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="I15" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="S15" s="44" t="s">
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="S15" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="43"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="43"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="43"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="43"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="43"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="43"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="43"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="43"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="43"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="43"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="43"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="43"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="41"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="43"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="43"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="40"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="43"/>
-      <c r="AB31" s="43"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="43"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="43"/>
-      <c r="AB33" s="43"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3271,27 +3248,27 @@
   <cols>
     <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
     <col min="5" max="5" width="43" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3307,8 +3284,8 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>379</v>
+      <c r="E2" s="33" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3316,7 +3293,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -3324,8 +3301,8 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>379</v>
+      <c r="E3" s="33" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3341,13 +3318,13 @@
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>379</v>
+      <c r="E4" s="33" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -3358,8 +3335,8 @@
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="35" t="s">
-        <v>380</v>
+      <c r="E5" s="33" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3375,28 +3352,28 @@
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>399</v>
+      <c r="E6" s="33" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="45" t="s">
         <v>324</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>381</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="50" t="s">
-        <v>382</v>
-      </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52" t="s">
-        <v>396</v>
+      <c r="B9" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="47" t="s">
+        <v>395</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="80" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="11" t="s">
         <v>326</v>
       </c>
@@ -3409,7 +3386,7 @@
       <c r="E10" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="F10" s="53"/>
+      <c r="F10" s="81"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -3427,28 +3404,28 @@
       <c r="E11" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F11" s="37" t="s">
-        <v>385</v>
+      <c r="F11" s="34" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>383</v>
+      <c r="B12" t="s">
+        <v>393</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>383</v>
+        <v>372</v>
+      </c>
+      <c r="D12" t="s">
+        <v>393</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3467,8 +3444,8 @@
       <c r="E13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="35" t="s">
-        <v>379</v>
+      <c r="F13" s="33" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3476,24 +3453,24 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="37" t="s">
-        <v>388</v>
+      <c r="F14" s="34" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
@@ -3507,8 +3484,8 @@
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="37" t="s">
-        <v>387</v>
+      <c r="F15" s="34" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3527,13 +3504,13 @@
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="35" t="s">
-        <v>379</v>
+      <c r="F16" s="33" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>322</v>
@@ -3542,162 +3519,162 @@
         <v>330</v>
       </c>
       <c r="D19" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="82" t="s">
+        <v>329</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="83" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="84" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="83" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D22" s="84" t="s">
+        <v>399</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="83" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D23" s="85" t="s">
+        <v>342</v>
+      </c>
+      <c r="E23" s="85" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D24" s="85" t="s">
+        <v>384</v>
+      </c>
+      <c r="E24" s="85" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="83" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D25" s="85" t="s">
+        <v>384</v>
+      </c>
+      <c r="E25" s="85" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="82" t="s">
         <v>349</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="B26" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="B25" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
         <v>392</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
-        <v>401</v>
-      </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3736,1013 +3713,1013 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="54" t="s">
-        <v>397</v>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="72" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="54"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="72"/>
     </row>
     <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="54"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="72"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>398</v>
+      <c r="E5" s="32" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="57" t="s">
-        <v>355</v>
+      <c r="E6" s="75" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="76"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="58"/>
+      <c r="E8" s="76"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="58"/>
+      <c r="E9" s="76"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="58"/>
+      <c r="E10" s="76"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="59" t="s">
-        <v>356</v>
+      <c r="E11" s="77" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="60"/>
+      <c r="E12" s="78"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="60"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="60"/>
+      <c r="E14" s="78"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="77" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="79"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="79"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="79"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="54" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="23" t="s">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="61"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="23" t="s">
+      <c r="D21" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="55"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="61"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="23" t="s">
+      <c r="D22" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="55"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="61"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="67" t="s">
+      <c r="D23" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="55"/>
+    </row>
+    <row r="24" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="56"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="58"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="58"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="58"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="58"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="58"/>
+    </row>
+    <row r="32" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="59"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="60"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="60"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="60"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="60"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="60"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="60"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23"/>
+      <c r="B41" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="60"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
+      <c r="B42" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="61"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="62"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="62"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="62"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="62"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="23"/>
+      <c r="B49" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="62"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="23"/>
+      <c r="B50" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="62"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="23"/>
+      <c r="B51" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" s="62"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="54" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="68"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="68"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="68"/>
-    </row>
-    <row r="24" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="69"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="26" t="s">
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="55"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="23"/>
+      <c r="B55" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="55"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="23"/>
+      <c r="B56" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="55"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="23"/>
+      <c r="B57" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="55"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="23"/>
+      <c r="B58" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="55"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="23"/>
+      <c r="B59" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="55"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="23"/>
+      <c r="B60" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" s="55"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="55"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="23"/>
+      <c r="B62" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="56"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="70" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="26" t="s">
+      <c r="D64" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="49" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="23"/>
+      <c r="B65" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="71"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="26" t="s">
+      <c r="D65" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="62"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="23"/>
+      <c r="B66" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="71"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="26" t="s">
+      <c r="D66" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E66" s="62"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="23"/>
+      <c r="B67" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="71"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="26" t="s">
+      <c r="D67" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E67" s="62"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="23"/>
+      <c r="B68" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="71"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="26" t="s">
+      <c r="D68" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" s="62"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="23"/>
+      <c r="B69" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="71"/>
-    </row>
-    <row r="32" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="26" t="s">
+      <c r="D69" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="62"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="23"/>
+      <c r="B70" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="72"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="67" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="26" t="s">
+      <c r="D70" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E70" s="62"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E72" s="49" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="23"/>
+      <c r="B73" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="73"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="26" t="s">
+      <c r="D73" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E73" s="63"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="23"/>
+      <c r="B74" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="73"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="73"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="73"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="73"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="73"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="73"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="74"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="62" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="75"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="75"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
-      <c r="B47" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="75"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="75"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" s="75"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" s="75"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" s="75"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" s="67" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54" s="68"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" s="68"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E56" s="68"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" s="68"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="E58" s="68"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E59" s="68"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="E60" s="68"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="E61" s="68"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="E62" s="69"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="E64" s="62" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
-      <c r="B65" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E65" s="75"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
-      <c r="B66" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" s="27" t="s">
+      <c r="D74" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E66" s="75"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
-      <c r="B67" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D67" s="27" t="s">
+      <c r="E74" s="63"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="23"/>
+      <c r="B75" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="E67" s="75"/>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
-      <c r="B68" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D68" s="27" t="s">
+      <c r="E75" s="63"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="23"/>
+      <c r="B76" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E76" s="63"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="23"/>
+      <c r="B77" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="E68" s="75"/>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" s="27" t="s">
+      <c r="E77" s="63"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="23"/>
+      <c r="B78" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="E69" s="75"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
-      <c r="B70" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" s="27" t="s">
+      <c r="E78" s="63"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="23"/>
+      <c r="B79" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D79" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="E70" s="75"/>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E72" s="62" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
-      <c r="B73" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E73" s="76"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="25"/>
-      <c r="B74" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="E74" s="76"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="25"/>
-      <c r="B75" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="E75" s="76"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="25"/>
-      <c r="B76" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="E76" s="76"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="25"/>
-      <c r="B77" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E77" s="76"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
-      <c r="B78" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E78" s="76"/>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="25"/>
-      <c r="B79" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="E79" s="76"/>
+      <c r="E79" s="63"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
@@ -4752,73 +4729,73 @@
       <c r="E80" s="9"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C81" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="D81" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="E81" s="77" t="s">
-        <v>358</v>
+      <c r="E81" s="64" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="22"/>
-      <c r="B82" s="23" t="s">
+      <c r="A82" s="20"/>
+      <c r="B82" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="E82" s="78"/>
+      <c r="E82" s="65"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="22"/>
-      <c r="B83" s="23" t="s">
+      <c r="A83" s="20"/>
+      <c r="B83" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="E83" s="78"/>
+      <c r="E83" s="65"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="22"/>
-      <c r="B84" s="23" t="s">
+      <c r="A84" s="20"/>
+      <c r="B84" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="E84" s="78"/>
+      <c r="E84" s="65"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="22"/>
-      <c r="B85" s="23" t="s">
+      <c r="A85" s="20"/>
+      <c r="B85" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C85" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D85" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="E85" s="78"/>
+      <c r="E85" s="65"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
@@ -4828,138 +4805,138 @@
       <c r="E86" s="9"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="D87" s="27" t="s">
+      <c r="D87" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="E87" s="67" t="s">
-        <v>368</v>
+      <c r="E87" s="54" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="25"/>
-      <c r="B88" s="26" t="s">
+      <c r="A88" s="23"/>
+      <c r="B88" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="D88" s="27" t="s">
+      <c r="D88" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="E88" s="82"/>
+      <c r="E88" s="69"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="25"/>
-      <c r="B89" s="26" t="s">
+      <c r="A89" s="23"/>
+      <c r="B89" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="D89" s="27" t="s">
+      <c r="D89" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="E89" s="82"/>
+      <c r="E89" s="69"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="25"/>
-      <c r="B90" s="26" t="s">
+      <c r="A90" s="23"/>
+      <c r="B90" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D90" s="27" t="s">
+      <c r="D90" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="E90" s="82"/>
+      <c r="E90" s="69"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="25"/>
-      <c r="B91" s="26" t="s">
+      <c r="A91" s="23"/>
+      <c r="B91" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="D91" s="27" t="s">
+      <c r="D91" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="E91" s="82"/>
+      <c r="E91" s="69"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="25"/>
-      <c r="B92" s="26" t="s">
+      <c r="A92" s="23"/>
+      <c r="B92" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C92" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D92" s="27" t="s">
+      <c r="D92" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="E92" s="82"/>
+      <c r="E92" s="69"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="25"/>
-      <c r="B93" s="26" t="s">
+      <c r="A93" s="23"/>
+      <c r="B93" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="D93" s="27" t="s">
+      <c r="D93" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="E93" s="82"/>
+      <c r="E93" s="69"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="25"/>
-      <c r="B94" s="26" t="s">
+      <c r="A94" s="23"/>
+      <c r="B94" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="D94" s="27" t="s">
+      <c r="D94" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="E94" s="82"/>
+      <c r="E94" s="69"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="25"/>
-      <c r="B95" s="26" t="s">
+      <c r="A95" s="23"/>
+      <c r="B95" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="D95" s="27" t="s">
+      <c r="D95" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="E95" s="82"/>
+      <c r="E95" s="69"/>
     </row>
     <row r="96" spans="1:5" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="25"/>
-      <c r="B96" s="26" t="s">
+      <c r="A96" s="23"/>
+      <c r="B96" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="C96" s="26" t="s">
+      <c r="C96" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="D96" s="27" t="s">
+      <c r="D96" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="E96" s="83"/>
+      <c r="E96" s="70"/>
     </row>
     <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
@@ -4969,83 +4946,83 @@
       <c r="E97" s="9"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="B98" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C98" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="D98" s="27" t="s">
+      <c r="D98" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="E98" s="79" t="s">
-        <v>367</v>
+      <c r="E98" s="66" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="25"/>
-      <c r="B99" s="26" t="s">
+      <c r="A99" s="23"/>
+      <c r="B99" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="C99" s="26" t="s">
+      <c r="C99" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D99" s="27" t="s">
+      <c r="D99" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="E99" s="80"/>
+      <c r="E99" s="67"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="25"/>
-      <c r="B100" s="26" t="s">
+      <c r="A100" s="23"/>
+      <c r="B100" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="C100" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="D100" s="27" t="s">
+      <c r="D100" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="E100" s="80"/>
+      <c r="E100" s="67"/>
     </row>
     <row r="101" spans="1:5" ht="142.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="25"/>
-      <c r="B101" s="26" t="s">
+      <c r="A101" s="23"/>
+      <c r="B101" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="C101" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="D101" s="27" t="s">
+      <c r="D101" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="E101" s="81"/>
+      <c r="E101" s="68"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="64" t="s">
+      <c r="A104" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="B104" s="65"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="66"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="52"/>
+      <c r="E104" s="53"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="65"/>
-      <c r="B105" s="65"/>
-      <c r="C105" s="65"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="66"/>
+      <c r="A105" s="52"/>
+      <c r="B105" s="52"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="52"/>
+      <c r="E105" s="53"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="65"/>
-      <c r="B106" s="65"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="66"/>
+      <c r="A106" s="52"/>
+      <c r="B106" s="52"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="52"/>
+      <c r="E106" s="53"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5061,78 +5038,78 @@
       <c r="D108" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E108" s="18" t="s">
+      <c r="E108" s="16" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="B109" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="C109" s="23" t="s">
+      <c r="C109" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="D109" s="24" t="s">
+      <c r="D109" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="E109" s="84" t="s">
-        <v>359</v>
+      <c r="E109" s="71" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="22"/>
-      <c r="B110" s="23" t="s">
+      <c r="A110" s="20"/>
+      <c r="B110" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="C110" s="23" t="s">
+      <c r="C110" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="D110" s="24" t="s">
+      <c r="D110" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="E110" s="84"/>
+      <c r="E110" s="71"/>
     </row>
     <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="22"/>
-      <c r="B111" s="23" t="s">
+      <c r="A111" s="20"/>
+      <c r="B111" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C111" s="23" t="s">
+      <c r="C111" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="D111" s="24" t="s">
+      <c r="D111" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="E111" s="84"/>
+      <c r="E111" s="71"/>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="22"/>
-      <c r="B112" s="23" t="s">
+      <c r="A112" s="20"/>
+      <c r="B112" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="C112" s="23" t="s">
+      <c r="C112" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="D112" s="24" t="s">
+      <c r="D112" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="E112" s="84"/>
+      <c r="E112" s="71"/>
     </row>
     <row r="113" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="22"/>
-      <c r="B113" s="23" t="s">
+      <c r="A113" s="20"/>
+      <c r="B113" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C113" s="23" t="s">
+      <c r="C113" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="D113" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="E113" s="84"/>
+      <c r="E113" s="71"/>
     </row>
     <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
@@ -5141,86 +5118,86 @@
       <c r="D114" s="5"/>
     </row>
     <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="25" t="s">
+      <c r="A115" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="B115" s="26" t="s">
+      <c r="B115" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="C115" s="26" t="s">
+      <c r="C115" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="D115" s="27" t="s">
+      <c r="D115" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="E115" s="62" t="s">
-        <v>369</v>
+      <c r="E115" s="49" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="25"/>
-      <c r="B116" s="26" t="s">
+      <c r="A116" s="23"/>
+      <c r="B116" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="C116" s="26" t="s">
+      <c r="C116" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="D116" s="27" t="s">
+      <c r="D116" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="E116" s="62"/>
+      <c r="E116" s="49"/>
     </row>
     <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="25"/>
-      <c r="B117" s="26" t="s">
+      <c r="A117" s="23"/>
+      <c r="B117" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="C117" s="26" t="s">
+      <c r="C117" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="D117" s="27" t="s">
+      <c r="D117" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="E117" s="62"/>
+      <c r="E117" s="49"/>
     </row>
     <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="25"/>
-      <c r="B118" s="26" t="s">
+      <c r="A118" s="23"/>
+      <c r="B118" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="C118" s="26" t="s">
+      <c r="C118" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="D118" s="27" t="s">
+      <c r="D118" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="E118" s="62"/>
+      <c r="E118" s="49"/>
     </row>
     <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="25"/>
-      <c r="B119" s="26" t="s">
+      <c r="A119" s="23"/>
+      <c r="B119" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="C119" s="26" t="s">
+      <c r="C119" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="D119" s="27" t="s">
+      <c r="D119" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="E119" s="62"/>
+      <c r="E119" s="49"/>
     </row>
     <row r="120" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="25"/>
-      <c r="B120" s="26" t="s">
+      <c r="A120" s="23"/>
+      <c r="B120" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C120" s="26" t="s">
+      <c r="C120" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="D120" s="27" t="s">
+      <c r="D120" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="E120" s="62"/>
+      <c r="E120" s="49"/>
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6"/>
@@ -5229,86 +5206,86 @@
       <c r="D121" s="5"/>
     </row>
     <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="25" t="s">
+      <c r="A122" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="B122" s="26" t="s">
+      <c r="B122" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="C122" s="26" t="s">
+      <c r="C122" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="D122" s="26" t="s">
+      <c r="D122" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="E122" s="62" t="s">
-        <v>370</v>
+      <c r="E122" s="49" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="26"/>
-      <c r="B123" s="26" t="s">
+      <c r="A123" s="24"/>
+      <c r="B123" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="C123" s="26" t="s">
+      <c r="C123" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="D123" s="26" t="s">
+      <c r="D123" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="E123" s="62"/>
+      <c r="E123" s="49"/>
     </row>
     <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="26"/>
-      <c r="B124" s="26" t="s">
+      <c r="A124" s="24"/>
+      <c r="B124" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="C124" s="26" t="s">
+      <c r="C124" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="D124" s="26" t="s">
+      <c r="D124" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="E124" s="62"/>
+      <c r="E124" s="49"/>
     </row>
     <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="26"/>
-      <c r="B125" s="26" t="s">
+      <c r="A125" s="24"/>
+      <c r="B125" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="C125" s="26" t="s">
+      <c r="C125" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="D125" s="26" t="s">
+      <c r="D125" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="E125" s="62"/>
+      <c r="E125" s="49"/>
     </row>
     <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="26"/>
-      <c r="B126" s="26" t="s">
+      <c r="A126" s="24"/>
+      <c r="B126" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="C126" s="26" t="s">
+      <c r="C126" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="D126" s="26" t="s">
+      <c r="D126" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="E126" s="62"/>
+      <c r="E126" s="49"/>
     </row>
     <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="26"/>
-      <c r="B127" s="26" t="s">
+      <c r="A127" s="24"/>
+      <c r="B127" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="C127" s="26" t="s">
+      <c r="C127" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="D127" s="26" t="s">
+      <c r="D127" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="E127" s="62"/>
+      <c r="E127" s="49"/>
     </row>
     <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
@@ -5317,103 +5294,103 @@
       <c r="D128" s="5"/>
     </row>
     <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="22" t="s">
+      <c r="A129" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="B129" s="23" t="s">
+      <c r="B129" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C129" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="D129" s="24" t="s">
+      <c r="D129" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="E129" s="63" t="s">
+      <c r="E129" s="50" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="21"/>
+      <c r="B130" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="E130" s="50"/>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="21"/>
+      <c r="B131" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D131" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="E131" s="50"/>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="21"/>
+      <c r="B132" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="E132" s="50"/>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="21"/>
+      <c r="B133" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="E133" s="50"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="51" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="23"/>
-      <c r="B130" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="D130" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="E130" s="63"/>
-    </row>
-    <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="23"/>
-      <c r="B131" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="C131" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="D131" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="E131" s="63"/>
-    </row>
-    <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="23"/>
-      <c r="B132" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C132" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="D132" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="E132" s="63"/>
-    </row>
-    <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="23"/>
-      <c r="B133" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="C133" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="D133" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="E133" s="63"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="64" t="s">
-        <v>374</v>
-      </c>
-      <c r="B135" s="65"/>
-      <c r="C135" s="65"/>
-      <c r="D135" s="65"/>
-      <c r="E135" s="66"/>
+      <c r="B135" s="52"/>
+      <c r="C135" s="52"/>
+      <c r="D135" s="52"/>
+      <c r="E135" s="53"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="65"/>
-      <c r="B136" s="65"/>
-      <c r="C136" s="65"/>
-      <c r="D136" s="65"/>
-      <c r="E136" s="66"/>
+      <c r="A136" s="52"/>
+      <c r="B136" s="52"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="53"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="65"/>
-      <c r="B137" s="65"/>
-      <c r="C137" s="65"/>
-      <c r="D137" s="65"/>
-      <c r="E137" s="66"/>
+      <c r="A137" s="52"/>
+      <c r="B137" s="52"/>
+      <c r="C137" s="52"/>
+      <c r="D137" s="52"/>
+      <c r="E137" s="53"/>
     </row>
     <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="65"/>
-      <c r="B138" s="65"/>
-      <c r="C138" s="65"/>
-      <c r="D138" s="65"/>
-      <c r="E138" s="66"/>
+      <c r="A138" s="52"/>
+      <c r="B138" s="52"/>
+      <c r="C138" s="52"/>
+      <c r="D138" s="52"/>
+      <c r="E138" s="53"/>
     </row>
     <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
@@ -5429,7 +5406,7 @@
         <v>23</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5442,11 +5419,11 @@
       <c r="C140" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D140" s="41">
+      <c r="D140" s="38">
         <v>160480</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5457,11 +5434,11 @@
       <c r="C141" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D141" s="41">
+      <c r="D141" s="38">
         <v>224330</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5472,11 +5449,11 @@
       <c r="C142" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D142" s="41">
+      <c r="D142" s="38">
         <v>270575</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5487,11 +5464,11 @@
       <c r="C143" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D143" s="41">
+      <c r="D143" s="38">
         <v>363410</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5502,11 +5479,11 @@
       <c r="C144" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D144" s="41">
+      <c r="D144" s="38">
         <v>502660</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5517,11 +5494,11 @@
       <c r="C145" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D145" s="41">
+      <c r="D145" s="38">
         <v>87680</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5532,11 +5509,11 @@
       <c r="C146" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D146" s="41">
+      <c r="D146" s="38">
         <v>619560</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5547,11 +5524,11 @@
       <c r="C147" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D147" s="41">
+      <c r="D147" s="38">
         <v>877050</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5562,11 +5539,11 @@
       <c r="C148" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D148" s="41">
+      <c r="D148" s="38">
         <v>112</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5577,15 +5554,20 @@
       <c r="C149" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D149" s="41">
+      <c r="D149" s="38">
         <v>717710</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E15:E18"/>
     <mergeCell ref="E122:E127"/>
     <mergeCell ref="E129:E133"/>
     <mergeCell ref="A135:E138"/>
@@ -5602,11 +5584,6 @@
     <mergeCell ref="E87:E96"/>
     <mergeCell ref="E109:E113"/>
     <mergeCell ref="E115:E120"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E15:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5614,15 +5591,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010007CC4F365F7E2F4B8AA49D9D49B33605" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a7e5d1ebdee06f6f413492d625b67cf2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="53c34977-5f94-46d1-a544-a404ce812810" xmlns:ns3="b372b615-473b-421c-aa2b-b11f8355cd14" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b7d56e07239a473e19179a78a9df4b54" ns2:_="" ns3:_="">
     <xsd:import namespace="53c34977-5f94-46d1-a544-a404ce812810"/>
@@ -5839,6 +5807,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5848,14 +5825,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D586DD0F-3923-45DE-A477-9FB9DA48CBEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BD297C8-1514-4DD4-86C0-60554B44EF68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5874,6 +5843,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D586DD0F-3923-45DE-A477-9FB9DA48CBEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EF76EE0-8D54-46CA-8328-AC9B97088F05}">
   <ds:schemaRefs>
